--- a/Tests Kicroit.xlsx
+++ b/Tests Kicroit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px65goi\Documents\TPI Andrea Fontana\TPI-Infrastrucutre-d-une-PME-avec-deux-sites-distants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DB0FB6-A26F-4164-904D-086FC009DE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D526743D-E5EC-4EC3-8553-0F8AD54F2205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB49383D-F2EB-4203-A1AE-EB96FC1039FC}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="124">
   <si>
     <t xml:space="preserve">Quoi </t>
   </si>
@@ -121,9 +120,6 @@
     <t>Ping</t>
   </si>
   <si>
-    <t>Le serveur peut ping les appreils du réseau</t>
-  </si>
-  <si>
     <t>AD DS</t>
   </si>
   <si>
@@ -356,6 +352,51 @@
   </si>
   <si>
     <t>Le routeur gère correctement les Vlans</t>
+  </si>
+  <si>
+    <t>Réussite</t>
+  </si>
+  <si>
+    <t>Echec</t>
+  </si>
+  <si>
+    <t>Actuellement les règles fireWall ne bloquent rien du tout. Elles acceptent toutes tous les paquets de tous les services et de tous les utilisateurs</t>
+  </si>
+  <si>
+    <t>Le serveur peut ping les appareils du réseau</t>
+  </si>
+  <si>
+    <t>Le serveur d'impression liste les imprimantes et les pilotes</t>
+  </si>
+  <si>
+    <t>Les GPO pour les imprimantes ne fonctionnent pas mais ne sont pas nécessaires actuellement</t>
+  </si>
+  <si>
+    <t>Le serveur peut ping les appereils du réseau</t>
+  </si>
+  <si>
+    <t>Réplication</t>
+  </si>
+  <si>
+    <t>Le serveur est bien contrôleur de domaine et la réplication depuis le main s'est faite correctement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réussite </t>
+  </si>
+  <si>
+    <t>Du aux règles firewall actuellement le Nas peut ping et etre pingé</t>
+  </si>
+  <si>
+    <t>Basculement DHCP</t>
+  </si>
+  <si>
+    <t>Le service d'impression ne peut pas être redondant sans Virtualisation ce qui change toute l'infrastructure du réseau</t>
+  </si>
+  <si>
+    <t>Réplication DFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les dossiers sont répliqués correctement </t>
   </si>
 </sst>
 </file>
@@ -523,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -580,10 +621,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -917,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01BC886-3724-4F03-8B19-C282BBE48B26}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,46 +988,52 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -998,20 +1041,24 @@
       <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1023,12 +1070,14 @@
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1041,7 +1090,9 @@
       <c r="C9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1052,9 +1103,11 @@
         <v>16</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1067,7 +1120,9 @@
       <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1080,7 +1135,9 @@
       <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1093,7 +1150,9 @@
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1106,7 +1165,9 @@
       <c r="C14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1119,7 +1180,9 @@
       <c r="C15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1132,8 +1195,12 @@
       <c r="C16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="13"/>
+      <c r="D16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="12"/>
@@ -1141,20 +1208,22 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>23</v>
@@ -1162,20 +1231,24 @@
       <c r="C19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1183,12 +1256,14 @@
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1196,12 +1271,14 @@
         <v>25</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1214,112 +1291,132 @@
       <c r="C23" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="C24" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="C30" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="14"/>
+      <c r="D31" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="12"/>
@@ -1327,20 +1424,22 @@
     </row>
     <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="21"/>
+      <c r="D33" s="21" t="s">
+        <v>109</v>
+      </c>
       <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>23</v>
@@ -1348,20 +1447,24 @@
       <c r="C34" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="21"/>
+      <c r="D34" s="21" t="s">
+        <v>109</v>
+      </c>
       <c r="E34" s="22"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="21"/>
+        <v>115</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>109</v>
+      </c>
       <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1369,12 +1472,14 @@
         <v>25</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="21"/>
+      <c r="D36" s="21" t="s">
+        <v>109</v>
+      </c>
       <c r="E36" s="22"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1382,12 +1487,14 @@
         <v>25</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="21"/>
+      <c r="D37" s="21" t="s">
+        <v>109</v>
+      </c>
       <c r="E37" s="22"/>
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1400,521 +1507,573 @@
       <c r="C38" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="21"/>
+      <c r="D38" s="21" t="s">
+        <v>109</v>
+      </c>
       <c r="E38" s="22"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="21" t="s">
-        <v>33</v>
-      </c>
       <c r="C39" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="21"/>
+        <v>82</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>109</v>
+      </c>
       <c r="E39" s="22"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>109</v>
+      </c>
       <c r="E40" s="22"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="21"/>
+        <v>123</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>109</v>
+      </c>
       <c r="E41" s="22"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="21"/>
+        <v>85</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>109</v>
+      </c>
       <c r="E42" s="22"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C43" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="22"/>
-    </row>
-    <row r="44" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
-        <v>36</v>
-      </c>
       <c r="B44" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="22"/>
+        <v>47</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="21"/>
+        <v>85</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>109</v>
+      </c>
       <c r="E45" s="22"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="22" t="s">
+    <row r="46" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="12"/>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="22" t="s">
+      <c r="C49" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="22"/>
-    </row>
-    <row r="48" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="12"/>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="5" t="s">
+      <c r="D49" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="12"/>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C52" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" s="24"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="15"/>
-    </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="5" t="s">
+      <c r="B53" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="15"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="15"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="15"/>
-    </row>
-    <row r="53" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="12"/>
-      <c r="E53" s="12"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D53" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="24"/>
+    </row>
+    <row r="54" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C54" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="23"/>
+      <c r="D54" s="23" t="s">
+        <v>109</v>
+      </c>
       <c r="E54" s="24"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C55" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" s="24"/>
+    </row>
+    <row r="56" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="12"/>
+      <c r="E56" s="12"/>
+    </row>
+    <row r="57" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" s="16"/>
+    </row>
+    <row r="58" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" s="16"/>
+    </row>
+    <row r="59" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="12"/>
+      <c r="E59" s="12"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E60" s="17"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24"/>
-    </row>
-    <row r="56" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" s="23"/>
-      <c r="E56" s="24"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" s="23"/>
-      <c r="E57" s="24"/>
-    </row>
-    <row r="58" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="12"/>
-      <c r="E58" s="12"/>
-    </row>
-    <row r="59" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B59" s="6" t="s">
+      <c r="C61" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E61" s="17"/>
+    </row>
+    <row r="62" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="12"/>
+      <c r="E62" s="12"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="16"/>
-    </row>
-    <row r="60" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="16"/>
-    </row>
-    <row r="61" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="12"/>
-      <c r="E61" s="12"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="C63" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="D63" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" s="30"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" s="32"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65" s="30"/>
+    </row>
+    <row r="66" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="12"/>
+      <c r="E66" s="12"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="17"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" s="17" t="s">
+      <c r="C67" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="17"/>
-    </row>
-    <row r="64" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="12"/>
-      <c r="E64" s="12"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B65" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D65" s="30"/>
-      <c r="E65" s="32"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B66" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D66" s="33"/>
-      <c r="E66" s="34"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B67" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="C67" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D67" s="30"/>
-      <c r="E67" s="32"/>
-    </row>
-    <row r="68" spans="1:5" s="28" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="29"/>
-      <c r="E68" s="29"/>
+      <c r="D67" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E67" s="18"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E68" s="27"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C69" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E69" s="18"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="18"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B70" s="26" t="s">
+      <c r="C70" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="27" t="s">
+      <c r="D70" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E70" s="18"/>
+    </row>
+    <row r="71" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="12"/>
+      <c r="E71" s="12"/>
+    </row>
+    <row r="72" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="27"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+      <c r="B72" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E72" s="19"/>
+    </row>
+    <row r="73" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E73" s="19"/>
+    </row>
+    <row r="74" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E74" s="19"/>
+    </row>
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="12"/>
+      <c r="E76" s="12"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B77" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E77" s="20"/>
+    </row>
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="18"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+      <c r="C78" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E78" s="20"/>
+    </row>
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B72" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C72" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="18"/>
-    </row>
-    <row r="73" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="12"/>
-      <c r="E73" s="12"/>
-    </row>
-    <row r="74" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="19"/>
-    </row>
-    <row r="75" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="19"/>
-    </row>
-    <row r="76" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="19"/>
-    </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="19"/>
-    </row>
-    <row r="78" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="12"/>
-      <c r="E78" s="12"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
+      <c r="B79" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E79" s="20"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B80" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D79" s="10"/>
-      <c r="E79" s="20"/>
-    </row>
-    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>13</v>
-      </c>
       <c r="C80" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D80" s="10"/>
+        <v>106</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="E80" s="20"/>
     </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D81" s="10"/>
+        <v>108</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="E81" s="20"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D82" s="10"/>
-      <c r="E82" s="20"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D83" s="10"/>
-      <c r="E83" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
